--- a/Tabulação dos Dados.xlsx
+++ b/Tabulação dos Dados.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Pos Graduações\Doutorado em Computação - UFF\Disiplinas\EDA - 2019-2\GitHub\EDA2019-2\Karatsuba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Pos Graduações\Doutorado em Computação - UFF\Disiplinas\ASA - Luis Kowada\GitHub\Karatsuba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1106B5-EE39-4B14-9251-C1ECEF516B09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3A58F-A1A4-48FB-809E-B59740499572}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Base10" sheetId="1" r:id="rId1"/>
+    <sheet name="Base2" sheetId="2" r:id="rId1"/>
+    <sheet name="Base8" sheetId="3" r:id="rId2"/>
+    <sheet name="Base10" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,12 +32,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t xml:space="preserve">Tabulação dos dados </t>
   </si>
   <si>
     <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Base 10</t>
+  </si>
+  <si>
+    <t>Karatsuba</t>
+  </si>
+  <si>
+    <t>Tempo 1</t>
+  </si>
+  <si>
+    <t>Tempo  2</t>
+  </si>
+  <si>
+    <t>Tempo 3</t>
+  </si>
+  <si>
+    <t>Média Tempo</t>
+  </si>
+  <si>
+    <t>Acessos</t>
+  </si>
+  <si>
+    <t>Multiplicação Padrão</t>
+  </si>
+  <si>
+    <t>Base 2</t>
+  </si>
+  <si>
+    <t>Base 8</t>
   </si>
 </sst>
 </file>
@@ -71,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,99 +387,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083DF057-916D-4786-814F-F4FB5C18FC9F}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1024</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f>2^11</f>
         <v>2048</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <f>2^12</f>
         <v>4096</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>2^13</f>
+        <v>8192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D6743-F93E-4626-8EDC-39050C764888}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>2^11</f>
+        <v>2048</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f>2^12</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f>2^13</f>
         <v>8192</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>2^11</f>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>2^12</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>2^13</f>
+        <v>8192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tabulação dos Dados.xlsx
+++ b/Tabulação dos Dados.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Pos Graduações\Doutorado em Computação - UFF\Disiplinas\ASA - Luis Kowada\GitHub\Karatsuba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3A58F-A1A4-48FB-809E-B59740499572}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F14D0A-CA63-4259-90AE-ABF23C314475}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="10200" windowHeight="7350" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base2" sheetId="2" r:id="rId1"/>
     <sheet name="Base8" sheetId="3" r:id="rId2"/>
     <sheet name="Base10" sheetId="1" r:id="rId3"/>
+    <sheet name="Base16" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t xml:space="preserve">Tabulação dos dados </t>
   </si>
@@ -388,22 +389,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083DF057-916D-4786-814F-F4FB5C18FC9F}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -479,55 +483,407 @@
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(B5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(G5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E19" si="0">AVERAGE(B6:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J19" si="1">AVERAGE(G6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1E-3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F9">
+        <v>112</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>285</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F10">
+        <v>226</v>
+      </c>
+      <c r="G10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="K10">
+        <v>753</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>64</v>
       </c>
+      <c r="B11">
+        <v>1E-3</v>
+      </c>
+      <c r="C11">
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="F11">
+        <v>1075</v>
+      </c>
+      <c r="G11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>1E-3</v>
+      </c>
+      <c r="I11">
+        <v>2E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="K11">
+        <v>5093</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>128</v>
       </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12">
+        <v>2E-3</v>
+      </c>
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="F12">
+        <v>2740</v>
+      </c>
+      <c r="G12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I12">
+        <v>1E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>4.6666666666666671E-3</v>
+      </c>
+      <c r="K12">
+        <v>16101</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>256</v>
       </c>
+      <c r="B13">
+        <v>2E-3</v>
+      </c>
+      <c r="C13">
+        <v>1E-3</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="F13">
+        <v>8479</v>
+      </c>
+      <c r="G13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666669E-2</v>
+      </c>
+      <c r="K13">
+        <v>65597</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>512</v>
       </c>
+      <c r="B14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666666E-2</v>
+      </c>
+      <c r="F14">
+        <v>26101</v>
+      </c>
+      <c r="G14">
+        <v>0.189</v>
+      </c>
+      <c r="H14">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.17633333333333334</v>
+      </c>
+      <c r="K14">
+        <v>261153</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1024</v>
+      </c>
+      <c r="B15">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.433333333333334E-2</v>
+      </c>
+      <c r="F15">
+        <v>78877</v>
+      </c>
+      <c r="G15">
+        <v>0.67</v>
+      </c>
+      <c r="H15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.627</v>
+      </c>
+      <c r="K15">
+        <v>1074453</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -535,17 +891,151 @@
         <f>2^11</f>
         <v>2048</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.215</v>
+      </c>
+      <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.216</v>
+      </c>
+      <c r="F16">
+        <v>236581</v>
+      </c>
+      <c r="G16">
+        <v>2.702</v>
+      </c>
+      <c r="H16">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="I16">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>2.6946666666666665</v>
+      </c>
+      <c r="K16">
+        <v>4304597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>2^12</f>
         <v>4096</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.66066666666666674</v>
+      </c>
+      <c r="F17">
+        <v>703807</v>
+      </c>
+      <c r="G17">
+        <v>10.852</v>
+      </c>
+      <c r="H17">
+        <v>10.759</v>
+      </c>
+      <c r="I17">
+        <v>10.528</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>10.713000000000001</v>
+      </c>
+      <c r="K17">
+        <v>17091517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>2^13</f>
         <v>8192</v>
+      </c>
+      <c r="B18">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="C18">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="D18">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.9376666666666669</v>
+      </c>
+      <c r="F18">
+        <v>2124637</v>
+      </c>
+      <c r="G18">
+        <v>42.707000000000001</v>
+      </c>
+      <c r="H18">
+        <v>42.542000000000002</v>
+      </c>
+      <c r="I18">
+        <v>40.682000000000002</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>41.976999999999997</v>
+      </c>
+      <c r="K18">
+        <v>68265201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>2^14</f>
+        <v>16384</v>
+      </c>
+      <c r="B19">
+        <v>5.6980000000000004</v>
+      </c>
+      <c r="C19">
+        <v>5.601</v>
+      </c>
+      <c r="D19">
+        <v>5.7430000000000003</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.6806666666666672</v>
+      </c>
+      <c r="F19">
+        <v>6360397</v>
+      </c>
+      <c r="G19">
+        <v>162.92099999999999</v>
+      </c>
+      <c r="H19">
+        <v>163.53399999999999</v>
+      </c>
+      <c r="I19">
+        <v>163.05799999999999</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>163.17099999999999</v>
+      </c>
+      <c r="K19">
+        <v>272774013</v>
       </c>
     </row>
   </sheetData>
@@ -560,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D6743-F93E-4626-8EDC-39050C764888}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,9 +1063,9 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -651,55 +1141,407 @@
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(B5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(G5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E19" si="0">AVERAGE(B6:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J19" si="1">AVERAGE(G6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F8">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F9">
+        <v>154</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>389</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>526</v>
+      </c>
+      <c r="G10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10">
+        <v>1E-3</v>
+      </c>
+      <c r="I10">
+        <v>1E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K10">
+        <v>2053</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>64</v>
       </c>
+      <c r="B11">
+        <v>1E-3</v>
+      </c>
+      <c r="C11">
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>1591</v>
+      </c>
+      <c r="G11">
+        <v>2E-3</v>
+      </c>
+      <c r="H11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I11">
+        <v>1E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
+      <c r="K11">
+        <v>7761</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>128</v>
       </c>
+      <c r="B12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>2E-3</v>
+      </c>
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="F12">
+        <v>4792</v>
+      </c>
+      <c r="G12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.02</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333337E-2</v>
+      </c>
+      <c r="K12">
+        <v>31629</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>256</v>
       </c>
+      <c r="B13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="F13">
+        <v>14659</v>
+      </c>
+      <c r="G13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I13">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K13">
+        <v>122325</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>512</v>
       </c>
+      <c r="B14">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>43816</v>
+      </c>
+      <c r="G14">
+        <v>0.31</v>
+      </c>
+      <c r="H14">
+        <v>0.34</v>
+      </c>
+      <c r="I14">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.32633333333333336</v>
+      </c>
+      <c r="K14">
+        <v>497197</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1024</v>
+      </c>
+      <c r="B15">
+        <v>0.114</v>
+      </c>
+      <c r="C15">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>0.104</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.11266666666666665</v>
+      </c>
+      <c r="F15">
+        <v>132685</v>
+      </c>
+      <c r="G15">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="H15">
+        <v>1.33</v>
+      </c>
+      <c r="I15">
+        <v>1.347</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="K15">
+        <v>2002765</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -707,17 +1549,151 @@
         <f>2^11</f>
         <v>2048</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.33766666666666662</v>
+      </c>
+      <c r="F16">
+        <v>396490</v>
+      </c>
+      <c r="G16">
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="H16">
+        <v>4.99</v>
+      </c>
+      <c r="I16">
+        <v>5.0609999999999999</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>5.041666666666667</v>
+      </c>
+      <c r="K16">
+        <v>7901989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>2^12</f>
         <v>4096</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="D17">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0796666666666666</v>
+      </c>
+      <c r="F17">
+        <v>1189975</v>
+      </c>
+      <c r="G17">
+        <v>21.183</v>
+      </c>
+      <c r="H17">
+        <v>20.431999999999999</v>
+      </c>
+      <c r="I17">
+        <v>20.407</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>20.673999999999996</v>
+      </c>
+      <c r="K17">
+        <v>31809285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>2^13</f>
         <v>8192</v>
+      </c>
+      <c r="B18">
+        <v>3.19</v>
+      </c>
+      <c r="C18">
+        <v>3.3660000000000001</v>
+      </c>
+      <c r="D18">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.2356666666666669</v>
+      </c>
+      <c r="F18">
+        <v>3578794</v>
+      </c>
+      <c r="G18">
+        <v>84.616</v>
+      </c>
+      <c r="H18">
+        <v>80.076999999999998</v>
+      </c>
+      <c r="I18">
+        <v>79.652000000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>81.448333333333323</v>
+      </c>
+      <c r="K18">
+        <v>127218509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>2^14</f>
+        <v>16384</v>
+      </c>
+      <c r="B19">
+        <v>7.2309999999999999</v>
+      </c>
+      <c r="C19">
+        <v>9.4860000000000007</v>
+      </c>
+      <c r="D19">
+        <v>8.19</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>8.3023333333333316</v>
+      </c>
+      <c r="F19">
+        <v>10727824</v>
+      </c>
+      <c r="G19">
+        <v>257.69</v>
+      </c>
+      <c r="H19">
+        <v>285.12299999999999</v>
+      </c>
+      <c r="I19">
+        <v>311.08499999999998</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>284.63266666666664</v>
+      </c>
+      <c r="K19">
+        <v>509246373</v>
       </c>
     </row>
   </sheetData>
@@ -732,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +1720,10 @@
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -823,55 +1799,407 @@
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(B5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(G5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E18" si="0">AVERAGE(B6:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J18" si="1">AVERAGE(G6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(B9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>178</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>457</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>541</v>
+      </c>
+      <c r="G10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10">
+        <v>1E-3</v>
+      </c>
+      <c r="I10">
+        <v>1E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K10">
+        <v>1985</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>64</v>
       </c>
+      <c r="B11">
+        <v>2E-3</v>
+      </c>
+      <c r="C11">
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="F11">
+        <v>1690</v>
+      </c>
+      <c r="G11">
+        <v>1E-3</v>
+      </c>
+      <c r="H11">
+        <v>2E-3</v>
+      </c>
+      <c r="I11">
+        <v>1E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="K11">
+        <v>8077</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>128</v>
       </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F12">
+        <v>5026</v>
+      </c>
+      <c r="G12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K12">
+        <v>32633</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>256</v>
       </c>
+      <c r="B13">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000005E-3</v>
+      </c>
+      <c r="F13">
+        <v>15286</v>
+      </c>
+      <c r="G13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.08</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>7.4666666666666673E-2</v>
+      </c>
+      <c r="K13">
+        <v>131797</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>512</v>
       </c>
+      <c r="B14">
+        <v>0.03</v>
+      </c>
+      <c r="C14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.36</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F14">
+        <v>45559</v>
+      </c>
+      <c r="G14">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.318</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.34033333333333332</v>
+      </c>
+      <c r="K14">
+        <v>513269</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1024</v>
+      </c>
+      <c r="B15">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.128</v>
+      </c>
+      <c r="D15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.11933333333333333</v>
+      </c>
+      <c r="F15">
+        <v>136924</v>
+      </c>
+      <c r="G15">
+        <v>1.36</v>
+      </c>
+      <c r="H15">
+        <v>1.278</v>
+      </c>
+      <c r="I15">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.3116666666666665</v>
+      </c>
+      <c r="K15">
+        <v>2068069</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -879,17 +2207,119 @@
         <f>2^11</f>
         <v>2048</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.377</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.36999999999999994</v>
+      </c>
+      <c r="F16">
+        <v>410113</v>
+      </c>
+      <c r="G16">
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="H16">
+        <v>5.3819999999999997</v>
+      </c>
+      <c r="I16">
+        <v>5.4009999999999998</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>5.3506666666666662</v>
+      </c>
+      <c r="K16">
+        <v>8211149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>2^12</f>
         <v>4096</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="D17">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0583333333333333</v>
+      </c>
+      <c r="F17">
+        <v>1230313</v>
+      </c>
+      <c r="G17">
+        <v>20.411000000000001</v>
+      </c>
+      <c r="H17">
+        <v>20.491</v>
+      </c>
+      <c r="I17">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>21.121666666666666</v>
+      </c>
+      <c r="K17">
+        <v>3296613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>2^13</f>
         <v>8192</v>
+      </c>
+      <c r="B18">
+        <v>3.3969999999999998</v>
+      </c>
+      <c r="C18">
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="D18">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.339</v>
+      </c>
+      <c r="F18">
+        <v>3691360</v>
+      </c>
+      <c r="G18">
+        <v>86.962000000000003</v>
+      </c>
+      <c r="H18">
+        <v>86.712000000000003</v>
+      </c>
+      <c r="I18">
+        <v>89.835999999999999</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>87.836666666666659</v>
+      </c>
+      <c r="K18">
+        <v>131846025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>2^14</f>
+        <v>16384</v>
       </c>
     </row>
   </sheetData>
@@ -900,4 +2330,638 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAD484C-1D35-4E34-92ED-984FBC947FD3}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(B5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(G5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E19" si="0">AVERAGE(B6:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J19" si="1">AVERAGE(G6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>1E-3</v>
+      </c>
+      <c r="H8">
+        <v>1E-3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="K8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F9">
+        <v>202</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="K9">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1E-3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+      <c r="F10">
+        <v>553</v>
+      </c>
+      <c r="G10">
+        <v>1E-3</v>
+      </c>
+      <c r="H10">
+        <v>2E-3</v>
+      </c>
+      <c r="I10">
+        <v>1E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+      <c r="K10">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1E-3</v>
+      </c>
+      <c r="C11">
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>1816</v>
+      </c>
+      <c r="G11">
+        <v>1E-3</v>
+      </c>
+      <c r="H11">
+        <v>1E-3</v>
+      </c>
+      <c r="I11">
+        <v>1E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K11">
+        <v>8645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>1E-3</v>
+      </c>
+      <c r="C12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335E-3</v>
+      </c>
+      <c r="F12">
+        <v>5203</v>
+      </c>
+      <c r="G12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1.4333333333333332E-2</v>
+      </c>
+      <c r="K12">
+        <v>33233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>256</v>
+      </c>
+      <c r="B13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>15619</v>
+      </c>
+      <c r="G13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="I13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>8.3666666666666667E-2</v>
+      </c>
+      <c r="K13">
+        <v>135241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>512</v>
+      </c>
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.3666666666666671E-2</v>
+      </c>
+      <c r="F14">
+        <v>47323</v>
+      </c>
+      <c r="G14">
+        <v>0.377</v>
+      </c>
+      <c r="H14">
+        <v>0.37</v>
+      </c>
+      <c r="I14">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.36166666666666664</v>
+      </c>
+      <c r="K14">
+        <v>540857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1024</v>
+      </c>
+      <c r="B15">
+        <v>0.125</v>
+      </c>
+      <c r="C15">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.151</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.13666666666666669</v>
+      </c>
+      <c r="F15">
+        <v>141787</v>
+      </c>
+      <c r="G15">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.583</v>
+      </c>
+      <c r="I15">
+        <v>1.617</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="K15">
+        <v>2166329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>2^11</f>
+        <v>2048</v>
+      </c>
+      <c r="B16">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.377</v>
+      </c>
+      <c r="D16">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.38466666666666666</v>
+      </c>
+      <c r="F16">
+        <v>430222</v>
+      </c>
+      <c r="G16">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="H16">
+        <v>5.69</v>
+      </c>
+      <c r="I16">
+        <v>5.7460000000000004</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>5.7376666666666667</v>
+      </c>
+      <c r="K16">
+        <v>8711053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>2^12</f>
+        <v>4096</v>
+      </c>
+      <c r="B17">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.149</v>
+      </c>
+      <c r="D17">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.1726666666666667</v>
+      </c>
+      <c r="F17">
+        <v>1282849</v>
+      </c>
+      <c r="G17">
+        <v>23.196000000000002</v>
+      </c>
+      <c r="H17">
+        <v>23.253</v>
+      </c>
+      <c r="I17">
+        <v>23.344999999999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>23.264666666666667</v>
+      </c>
+      <c r="K17">
+        <v>34794741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>2^13</f>
+        <v>8192</v>
+      </c>
+      <c r="B18">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="C18">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="D18">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.4023333333333334</v>
+      </c>
+      <c r="F18">
+        <v>3849670</v>
+      </c>
+      <c r="G18">
+        <v>91.198999999999998</v>
+      </c>
+      <c r="H18">
+        <v>88.486000000000004</v>
+      </c>
+      <c r="I18">
+        <v>90.27</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>89.984999999999999</v>
+      </c>
+      <c r="K18">
+        <v>138964061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>2^14</f>
+        <v>16384</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tabulação dos Dados.xlsx
+++ b/Tabulação dos Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Pos Graduações\Doutorado em Computação - UFF\Disiplinas\ASA - Luis Kowada\GitHub\Karatsuba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F14D0A-CA63-4259-90AE-ABF23C314475}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE7DC1-B71F-4CA5-9DF6-157A7A421C0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="10200" windowHeight="7350" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base2" sheetId="2" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Tabulação dos dados </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>Tamanho</t>
   </si>
@@ -56,9 +53,6 @@
     <t>Tempo 3</t>
   </si>
   <si>
-    <t>Média Tempo</t>
-  </si>
-  <si>
     <t>Acessos</t>
   </si>
   <si>
@@ -70,12 +64,30 @@
   <si>
     <t>Base 8</t>
   </si>
+  <si>
+    <t>Menor Tempo</t>
+  </si>
+  <si>
+    <t>Tempo 12</t>
+  </si>
+  <si>
+    <t>Tempo  23</t>
+  </si>
+  <si>
+    <t>Tempo 34</t>
+  </si>
+  <si>
+    <t>Menor Tempo5</t>
+  </si>
+  <si>
+    <t>Acessos6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +95,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,19 +157,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -124,6 +234,102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{36923AC3-10EC-480D-B757-B598CA98AED7}" name="Tabela2" displayName="Tabela2" ref="A2:K17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:K17" xr:uid="{8EE0A306-0427-451B-A689-ED0FA4EE8A74}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{0CD3D782-6C68-4CF0-B30D-CFD004B07011}" name="Tamanho"/>
+    <tableColumn id="2" xr3:uid="{5CE0D767-155D-4AF8-86DE-E064AE232A6B}" name="Tempo 1"/>
+    <tableColumn id="3" xr3:uid="{EA3A74B8-780E-4914-8592-5AECB8B0E399}" name="Tempo  2"/>
+    <tableColumn id="4" xr3:uid="{A4CDCF13-D6EE-4C65-BA02-D527760EDB61}" name="Tempo 3"/>
+    <tableColumn id="5" xr3:uid="{1540AC6E-6FA0-4084-96BE-A093D9DAB34B}" name="Menor Tempo">
+      <calculatedColumnFormula>MIN(B3:D3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F39AC935-EC65-4307-ADAE-4E9A779737C9}" name="Acessos"/>
+    <tableColumn id="7" xr3:uid="{DC918DC5-5E50-474B-8154-E49132733144}" name="Tempo 12"/>
+    <tableColumn id="8" xr3:uid="{77AB76B9-767C-4B7E-92FD-5534159DA0D8}" name="Tempo  23"/>
+    <tableColumn id="9" xr3:uid="{B049782B-E2C2-481A-9858-DD6667E24B09}" name="Tempo 34"/>
+    <tableColumn id="10" xr3:uid="{C406ADA9-3F70-45E6-9300-A33223BB595C}" name="Menor Tempo5">
+      <calculatedColumnFormula>MIN(G3:I3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{87033F74-6D68-4219-BB1A-65675DCE16EC}" name="Acessos6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C680DF-195B-4531-96F6-AD34A9F3DBA2}" name="Tabela3" displayName="Tabela3" ref="A2:K17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:K17" xr:uid="{A265BC14-AC46-43D9-81EE-4631FED53B7F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{485B796F-DF48-467D-8F78-C3F482AF3F5D}" name="Tamanho"/>
+    <tableColumn id="2" xr3:uid="{5D63C477-12B8-4CC0-96D1-1FA26D6DA576}" name="Tempo 1"/>
+    <tableColumn id="3" xr3:uid="{3B955A7C-0793-438D-B604-85DCFF2C7A3D}" name="Tempo  2"/>
+    <tableColumn id="4" xr3:uid="{30AE33A2-3511-476A-BEEE-D7B3BCA1B4A1}" name="Tempo 3"/>
+    <tableColumn id="5" xr3:uid="{406FD104-94EB-4368-9BEF-E424BD2512AB}" name="Menor Tempo">
+      <calculatedColumnFormula>MIN(B3:D3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{86CFA3CD-E191-40FF-9B41-1276941006D0}" name="Acessos"/>
+    <tableColumn id="7" xr3:uid="{53E2B314-C0AD-48F2-8A44-360A40D08A43}" name="Tempo 12"/>
+    <tableColumn id="8" xr3:uid="{4FDB8A4C-7BB4-4D98-A03C-BE242C80A743}" name="Tempo  23"/>
+    <tableColumn id="9" xr3:uid="{00C47EB4-FC1C-4FF7-92BC-61A3EF8ADEBE}" name="Tempo 34"/>
+    <tableColumn id="10" xr3:uid="{29D6D349-92BC-4303-BDAA-C3E1C5C9F7A8}" name="Menor Tempo5">
+      <calculatedColumnFormula>MIN(G3:I3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{597197A8-CE11-4C55-B3F0-DE80B8229B5F}" name="Acessos6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04A99F5D-75E0-40FB-A1FE-687212CDF329}" name="Tabela4" displayName="Tabela4" ref="A2:K17" totalsRowShown="0">
+  <autoFilter ref="A2:K17" xr:uid="{BB59834E-06D0-4065-B81B-07CFC249302D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{9B50DB28-3663-4D30-9BAE-088407F4A78E}" name="Tamanho"/>
+    <tableColumn id="2" xr3:uid="{0D017119-A3D5-4B4F-872B-5D0FC93546F7}" name="Tempo 1"/>
+    <tableColumn id="3" xr3:uid="{36244A32-86F5-4FAF-95C9-32FE0C7FFEB8}" name="Tempo  2"/>
+    <tableColumn id="4" xr3:uid="{F19A5A94-9AA9-46FD-9BDB-10F4B66159E2}" name="Tempo 3"/>
+    <tableColumn id="5" xr3:uid="{80DE35E7-7182-4FBA-897A-1AC96171C28E}" name="Menor Tempo">
+      <calculatedColumnFormula>MIN(B3:D3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8CD7BB73-C975-46B8-9B7D-A51F899854BD}" name="Acessos"/>
+    <tableColumn id="7" xr3:uid="{3F3A49C6-8EED-4EC8-AFAB-450CF6030794}" name="Tempo 12"/>
+    <tableColumn id="8" xr3:uid="{F767A47E-4FA5-4F02-AF6D-A25A0A296062}" name="Tempo  23"/>
+    <tableColumn id="9" xr3:uid="{CEF76BD1-A7D4-4420-A929-DAECEDAF05EF}" name="Tempo 34"/>
+    <tableColumn id="10" xr3:uid="{4BC96044-9F4B-47A1-AF74-0E28B3DDA8E3}" name="Menor Tempo5">
+      <calculatedColumnFormula>MIN(G3:I3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{DFBA6EA0-02E8-478A-809D-108342B5FD9B}" name="Acessos6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{88B395FC-E144-48CF-915A-3B9E21EBC099}" name="Tabela5" displayName="Tabela5" ref="A2:K17" totalsRowShown="0">
+  <autoFilter ref="A2:K17" xr:uid="{8D00EFD9-9F95-4F3F-8FF7-E484EEC04C24}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{1075111E-BEF3-4B85-90CC-B01C9303928F}" name="Tamanho"/>
+    <tableColumn id="2" xr3:uid="{C23EC017-618C-429F-AEB0-A2C627235FE1}" name="Tempo 1"/>
+    <tableColumn id="3" xr3:uid="{76A397E9-9C47-4245-B89A-99672D028498}" name="Tempo  2"/>
+    <tableColumn id="4" xr3:uid="{6063C7AB-196E-4935-8236-3B6D93FCC959}" name="Tempo 3"/>
+    <tableColumn id="5" xr3:uid="{7FAB633F-BAAA-4931-9D46-8B5936627C4C}" name="Menor Tempo">
+      <calculatedColumnFormula>MIN(B3:D3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E348AE9D-C07E-4462-B335-38622B8D7393}" name="Acessos"/>
+    <tableColumn id="7" xr3:uid="{CB17DC78-53FD-46C7-91A1-18DE5C14C378}" name="Tempo 12"/>
+    <tableColumn id="8" xr3:uid="{56BC8D41-91A8-45ED-AF03-DAA5E477BEA0}" name="Tempo  23"/>
+    <tableColumn id="9" xr3:uid="{55DE6C27-5A6A-4999-8FD6-015F332A5F59}" name="Tempo 34"/>
+    <tableColumn id="10" xr3:uid="{900294AA-889C-400D-B175-DCD0C06CE9F0}" name="Menor Tempo5">
+      <calculatedColumnFormula>MIN(G3:I3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E2ADB7D7-D6BE-4788-B923-B14254759384}" name="Acessos6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,99 +595,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083DF057-916D-4786-814F-F4FB5C18FC9F}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>MIN(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>MIN(G3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">MIN(B4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J17" si="1">MIN(G4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -493,32 +758,32 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <f>AVERAGE(G5:I5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -530,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E19" si="0">AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -546,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J19" si="1">AVERAGE(G6:I6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -571,28 +836,28 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>3.3333333333333332E-4</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -601,17 +866,17 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -624,15 +889,15 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>65</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C9">
         <v>1E-3</v>
@@ -642,504 +907,495 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.3333333333333332E-4</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>112</v>
+        <v>1075</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K9">
-        <v>285</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D10">
         <v>1E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.3333333333333332E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
-        <v>226</v>
+        <v>2740</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>3.3333333333333332E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K10">
-        <v>753</v>
+        <v>16101</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="B11">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C11">
         <v>1E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>6.6666666666666664E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
-        <v>1075</v>
+        <v>8479</v>
       </c>
       <c r="G11">
-        <v>3.0000000000000001E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H11">
-        <v>1E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I11">
-        <v>2E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>2E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="K11">
-        <v>5093</v>
+        <v>65597</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="B12">
-        <v>1E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C12">
-        <v>2E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D12">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F12">
-        <v>2740</v>
+        <v>26101</v>
       </c>
       <c r="G12">
-        <v>5.0000000000000001E-3</v>
+        <v>0.189</v>
       </c>
       <c r="H12">
-        <v>8.0000000000000002E-3</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I12">
-        <v>1E-3</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>4.6666666666666671E-3</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="K12">
-        <v>16101</v>
+        <v>261153</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B13">
-        <v>2E-3</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C13">
-        <v>1E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D13">
-        <v>1E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F13">
-        <v>8479</v>
+        <v>78877</v>
       </c>
       <c r="G13">
-        <v>4.1000000000000002E-2</v>
+        <v>0.67</v>
       </c>
       <c r="H13">
-        <v>2.1000000000000001E-2</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="I13">
-        <v>3.3000000000000002E-2</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>3.1666666666666669E-2</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="K13">
-        <v>65597</v>
+        <v>1074453</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>512</v>
+        <f>2^11</f>
+        <v>2048</v>
       </c>
       <c r="B14">
-        <v>2.4E-2</v>
+        <v>0.215</v>
       </c>
       <c r="C14">
-        <v>2.1999999999999999E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>1.2999999999999999E-2</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1.9666666666666666E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
-        <v>26101</v>
+        <v>236581</v>
       </c>
       <c r="G14">
-        <v>0.189</v>
+        <v>2.702</v>
       </c>
       <c r="H14">
-        <v>0.17599999999999999</v>
+        <v>2.6930000000000001</v>
       </c>
       <c r="I14">
-        <v>0.16400000000000001</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.17633333333333334</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="K14">
-        <v>261153</v>
+        <v>4304597</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1024</v>
+        <f>2^12</f>
+        <v>4096</v>
       </c>
       <c r="B15">
-        <v>6.3E-2</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C15">
-        <v>5.1999999999999998E-2</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="D15">
-        <v>7.8E-2</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>6.433333333333334E-2</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F15">
-        <v>78877</v>
+        <v>703807</v>
       </c>
       <c r="G15">
-        <v>0.67</v>
+        <v>10.852</v>
       </c>
       <c r="H15">
-        <v>0.57399999999999995</v>
+        <v>10.759</v>
       </c>
       <c r="I15">
-        <v>0.63700000000000001</v>
+        <v>10.528</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.627</v>
+        <v>10.528</v>
       </c>
       <c r="K15">
-        <v>1074453</v>
+        <v>17091517</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>2^11</f>
-        <v>2048</v>
+        <f>2^13</f>
+        <v>8192</v>
       </c>
       <c r="B16">
-        <v>0.215</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="D16">
-        <v>0.23300000000000001</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.216</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="F16">
-        <v>236581</v>
+        <v>2124637</v>
       </c>
       <c r="G16">
-        <v>2.702</v>
+        <v>42.707000000000001</v>
       </c>
       <c r="H16">
-        <v>2.6930000000000001</v>
+        <v>42.542000000000002</v>
       </c>
       <c r="I16">
-        <v>2.6890000000000001</v>
+        <v>40.682000000000002</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>2.6946666666666665</v>
+        <v>40.682000000000002</v>
       </c>
       <c r="K16">
-        <v>4304597</v>
+        <v>68265201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>2^12</f>
-        <v>4096</v>
-      </c>
-      <c r="B17">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="C17">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="D17">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.66066666666666674</v>
-      </c>
-      <c r="F17">
-        <v>703807</v>
-      </c>
-      <c r="G17">
-        <v>10.852</v>
-      </c>
-      <c r="H17">
-        <v>10.759</v>
-      </c>
-      <c r="I17">
-        <v>10.528</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>10.713000000000001</v>
-      </c>
-      <c r="K17">
-        <v>17091517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>2^13</f>
-        <v>8192</v>
-      </c>
-      <c r="B18">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="C18">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="D18">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1.9376666666666669</v>
-      </c>
-      <c r="F18">
-        <v>2124637</v>
-      </c>
-      <c r="G18">
-        <v>42.707000000000001</v>
-      </c>
-      <c r="H18">
-        <v>42.542000000000002</v>
-      </c>
-      <c r="I18">
-        <v>40.682000000000002</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>41.976999999999997</v>
-      </c>
-      <c r="K18">
-        <v>68265201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
         <f>2^14</f>
         <v>16384</v>
       </c>
-      <c r="B19">
+      <c r="B17">
         <v>5.6980000000000004</v>
       </c>
-      <c r="C19">
+      <c r="C17">
         <v>5.601</v>
       </c>
-      <c r="D19">
+      <c r="D17">
         <v>5.7430000000000003</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>5.6806666666666672</v>
-      </c>
-      <c r="F19">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5.601</v>
+      </c>
+      <c r="F17">
         <v>6360397</v>
       </c>
-      <c r="G19">
+      <c r="G17">
         <v>162.92099999999999</v>
       </c>
-      <c r="H19">
+      <c r="H17">
         <v>163.53399999999999</v>
       </c>
-      <c r="I19">
+      <c r="I17">
         <v>163.05799999999999</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>163.17099999999999</v>
-      </c>
-      <c r="K19">
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>162.92099999999999</v>
+      </c>
+      <c r="K17">
         <v>272774013</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D6743-F93E-4626-8EDC-39050C764888}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>MIN(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>MIN(G3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">MIN(B4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J17" si="1">MIN(G4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1151,11 +1407,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1167,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>AVERAGE(G5:I5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1188,11 +1444,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E19" si="0">AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1204,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J19" si="1">AVERAGE(G6:I6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1222,14 +1478,14 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1245,15 +1501,15 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>33</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1263,541 +1519,531 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.3333333333333332E-4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>58</v>
+        <v>526</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K8">
-        <v>125</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
         <v>1E-3</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.3333333333333332E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
-        <v>154</v>
+        <v>1591</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K9">
-        <v>389</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="F10">
-        <v>526</v>
+        <v>4792</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H10">
-        <v>1E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K10">
-        <v>2053</v>
+        <v>31629</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="B11">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>1E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D11">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F11">
-        <v>1591</v>
+        <v>14659</v>
       </c>
       <c r="G11">
-        <v>2E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H11">
-        <v>6.0000000000000001E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="I11">
-        <v>1E-3</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>3.0000000000000005E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="K11">
-        <v>7761</v>
+        <v>122325</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="B12">
-        <v>4.0000000000000001E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C12">
-        <v>2E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D12">
-        <v>2E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>2.6666666666666666E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F12">
-        <v>4792</v>
+        <v>43816</v>
       </c>
       <c r="G12">
-        <v>1.4E-2</v>
+        <v>0.31</v>
       </c>
       <c r="H12">
-        <v>2.1000000000000001E-2</v>
+        <v>0.34</v>
       </c>
       <c r="I12">
-        <v>0.02</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>1.8333333333333337E-2</v>
+        <v>0.31</v>
       </c>
       <c r="K12">
-        <v>31629</v>
+        <v>497197</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B13">
-        <v>7.0000000000000001E-3</v>
+        <v>0.114</v>
       </c>
       <c r="C13">
-        <v>8.0000000000000002E-3</v>
+        <v>0.12</v>
       </c>
       <c r="D13">
-        <v>3.0000000000000001E-3</v>
+        <v>0.104</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>5.9999999999999993E-3</v>
+        <v>0.104</v>
       </c>
       <c r="F13">
-        <v>14659</v>
+        <v>132685</v>
       </c>
       <c r="G13">
-        <v>7.4999999999999997E-2</v>
+        <v>1.3069999999999999</v>
       </c>
       <c r="H13">
-        <v>6.0999999999999999E-2</v>
+        <v>1.33</v>
       </c>
       <c r="I13">
-        <v>7.0999999999999994E-2</v>
+        <v>1.347</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>6.9000000000000006E-2</v>
+        <v>1.3069999999999999</v>
       </c>
       <c r="K13">
-        <v>122325</v>
+        <v>2002765</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>512</v>
+        <f>2^11</f>
+        <v>2048</v>
       </c>
       <c r="B14">
-        <v>2.4E-2</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C14">
-        <v>2.7E-2</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D14">
-        <v>2.7E-2</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F14">
-        <v>43816</v>
+        <v>396490</v>
       </c>
       <c r="G14">
-        <v>0.31</v>
+        <v>5.0739999999999998</v>
       </c>
       <c r="H14">
-        <v>0.34</v>
+        <v>4.99</v>
       </c>
       <c r="I14">
-        <v>0.32900000000000001</v>
+        <v>5.0609999999999999</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.32633333333333336</v>
+        <v>4.99</v>
       </c>
       <c r="K14">
-        <v>497197</v>
+        <v>7901989</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1024</v>
+        <f>2^12</f>
+        <v>4096</v>
       </c>
       <c r="B15">
-        <v>0.114</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="C15">
-        <v>0.12</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="D15">
-        <v>0.104</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.11266666666666665</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="F15">
-        <v>132685</v>
+        <v>1189975</v>
       </c>
       <c r="G15">
-        <v>1.3069999999999999</v>
+        <v>21.183</v>
       </c>
       <c r="H15">
-        <v>1.33</v>
+        <v>20.431999999999999</v>
       </c>
       <c r="I15">
-        <v>1.347</v>
+        <v>20.407</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>1.3280000000000001</v>
+        <v>20.407</v>
       </c>
       <c r="K15">
-        <v>2002765</v>
+        <v>31809285</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>2^11</f>
-        <v>2048</v>
+        <f>2^13</f>
+        <v>8192</v>
       </c>
       <c r="B16">
-        <v>0.36199999999999999</v>
+        <v>3.19</v>
       </c>
       <c r="C16">
-        <v>0.32800000000000001</v>
+        <v>3.3660000000000001</v>
       </c>
       <c r="D16">
-        <v>0.32300000000000001</v>
+        <v>3.1509999999999998</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.33766666666666662</v>
+        <v>3.1509999999999998</v>
       </c>
       <c r="F16">
-        <v>396490</v>
+        <v>3578794</v>
       </c>
       <c r="G16">
-        <v>5.0739999999999998</v>
+        <v>84.616</v>
       </c>
       <c r="H16">
-        <v>4.99</v>
+        <v>80.076999999999998</v>
       </c>
       <c r="I16">
-        <v>5.0609999999999999</v>
+        <v>79.652000000000001</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>5.041666666666667</v>
+        <v>79.652000000000001</v>
       </c>
       <c r="K16">
-        <v>7901989</v>
+        <v>127218509</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>2^12</f>
-        <v>4096</v>
-      </c>
-      <c r="B17">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="D17">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1.0796666666666666</v>
-      </c>
-      <c r="F17">
-        <v>1189975</v>
-      </c>
-      <c r="G17">
-        <v>21.183</v>
-      </c>
-      <c r="H17">
-        <v>20.431999999999999</v>
-      </c>
-      <c r="I17">
-        <v>20.407</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>20.673999999999996</v>
-      </c>
-      <c r="K17">
-        <v>31809285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>2^13</f>
-        <v>8192</v>
-      </c>
-      <c r="B18">
-        <v>3.19</v>
-      </c>
-      <c r="C18">
-        <v>3.3660000000000001</v>
-      </c>
-      <c r="D18">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>3.2356666666666669</v>
-      </c>
-      <c r="F18">
-        <v>3578794</v>
-      </c>
-      <c r="G18">
-        <v>84.616</v>
-      </c>
-      <c r="H18">
-        <v>80.076999999999998</v>
-      </c>
-      <c r="I18">
-        <v>79.652000000000001</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>81.448333333333323</v>
-      </c>
-      <c r="K18">
-        <v>127218509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
         <f>2^14</f>
         <v>16384</v>
       </c>
-      <c r="B19">
+      <c r="B17">
         <v>7.2309999999999999</v>
       </c>
-      <c r="C19">
+      <c r="C17">
         <v>9.4860000000000007</v>
       </c>
-      <c r="D19">
+      <c r="D17">
         <v>8.19</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>8.3023333333333316</v>
-      </c>
-      <c r="F19">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.2309999999999999</v>
+      </c>
+      <c r="F17">
         <v>10727824</v>
       </c>
-      <c r="G19">
+      <c r="G17">
         <v>257.69</v>
       </c>
-      <c r="H19">
+      <c r="H17">
         <v>285.12299999999999</v>
       </c>
-      <c r="I19">
+      <c r="I17">
         <v>311.08499999999998</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>284.63266666666664</v>
-      </c>
-      <c r="K19">
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>257.69</v>
+      </c>
+      <c r="K17">
         <v>509246373</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>MIN(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>MIN(G3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">MIN(B4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J17" si="1">MIN(G4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1809,11 +2055,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1825,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>AVERAGE(G5:I5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1846,11 +2092,11 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E18" si="0">AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1862,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J18" si="1">AVERAGE(G6:I6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1887,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1903,12 +2149,12 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>33</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1924,506 +2170,528 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>541</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K8">
-        <v>70</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
-        <f>AVERAGE(B9:D9)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
       </c>
       <c r="F9">
-        <v>178</v>
+        <v>1690</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K9">
-        <v>457</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
-        <v>541</v>
+        <v>5026</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K10">
-        <v>1985</v>
+        <v>32633</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="B11">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C11">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D11">
         <v>1E-3</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
-        <v>1690</v>
+        <v>15286</v>
       </c>
       <c r="G11">
-        <v>1E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H11">
-        <v>2E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I11">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="K11">
-        <v>8077</v>
+        <v>131797</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="B12">
-        <v>1E-3</v>
+        <v>0.03</v>
       </c>
       <c r="C12">
-        <v>1E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>1E-3</v>
+        <v>0.36</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>5026</v>
+        <v>45559</v>
       </c>
       <c r="G12">
-        <v>5.0000000000000001E-3</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="H12">
-        <v>2.5000000000000001E-2</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="I12">
-        <v>8.9999999999999993E-3</v>
+        <v>0.318</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>1.2999999999999999E-2</v>
+        <v>0.318</v>
       </c>
       <c r="K12">
-        <v>32633</v>
+        <v>513269</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B13">
-        <v>1E-3</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="C13">
-        <v>7.0000000000000001E-3</v>
+        <v>0.128</v>
       </c>
       <c r="D13">
-        <v>1E-3</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>3.0000000000000005E-3</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F13">
-        <v>15286</v>
+        <v>136924</v>
       </c>
       <c r="G13">
-        <v>6.6000000000000003E-2</v>
+        <v>1.36</v>
       </c>
       <c r="H13">
-        <v>7.8E-2</v>
+        <v>1.278</v>
       </c>
       <c r="I13">
-        <v>0.08</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>7.4666666666666673E-2</v>
+        <v>1.278</v>
       </c>
       <c r="K13">
-        <v>131797</v>
+        <v>2068069</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>512</v>
+        <f>2^11</f>
+        <v>2048</v>
       </c>
       <c r="B14">
-        <v>0.03</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C14">
-        <v>3.3000000000000002E-2</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D14">
-        <v>0.36</v>
+        <v>0.377</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.14099999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F14">
-        <v>45559</v>
+        <v>410113</v>
       </c>
       <c r="G14">
-        <v>0.34799999999999998</v>
+        <v>5.2690000000000001</v>
       </c>
       <c r="H14">
-        <v>0.35499999999999998</v>
+        <v>5.3819999999999997</v>
       </c>
       <c r="I14">
-        <v>0.318</v>
+        <v>5.4009999999999998</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.34033333333333332</v>
+        <v>5.2690000000000001</v>
       </c>
       <c r="K14">
-        <v>513269</v>
+        <v>8211149</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1024</v>
+        <f>2^12</f>
+        <v>4096</v>
       </c>
       <c r="B15">
-        <v>0.13300000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.128</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="D15">
-        <v>9.7000000000000003E-2</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.11933333333333333</v>
+        <v>1.02</v>
       </c>
       <c r="F15">
-        <v>136924</v>
+        <v>1230313</v>
       </c>
       <c r="G15">
-        <v>1.36</v>
+        <v>20.411000000000001</v>
       </c>
       <c r="H15">
-        <v>1.278</v>
+        <v>20.491</v>
       </c>
       <c r="I15">
-        <v>1.2969999999999999</v>
+        <v>22.463000000000001</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>1.3116666666666665</v>
+        <v>20.411000000000001</v>
       </c>
       <c r="K15">
-        <v>2068069</v>
+        <v>3296613</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>2^11</f>
-        <v>2048</v>
+        <f>2^13</f>
+        <v>8192</v>
       </c>
       <c r="B16">
-        <v>0.36499999999999999</v>
+        <v>3.3969999999999998</v>
       </c>
       <c r="C16">
-        <v>0.36799999999999999</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="D16">
-        <v>0.377</v>
+        <v>3.2919999999999998</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.36999999999999994</v>
+        <v>3.2919999999999998</v>
       </c>
       <c r="F16">
-        <v>410113</v>
+        <v>3691360</v>
       </c>
       <c r="G16">
-        <v>5.2690000000000001</v>
+        <v>86.962000000000003</v>
       </c>
       <c r="H16">
-        <v>5.3819999999999997</v>
+        <v>86.712000000000003</v>
       </c>
       <c r="I16">
-        <v>5.4009999999999998</v>
+        <v>89.835999999999999</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>5.3506666666666662</v>
+        <v>86.712000000000003</v>
       </c>
       <c r="K16">
-        <v>8211149</v>
+        <v>131846025</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>2^12</f>
-        <v>4096</v>
-      </c>
-      <c r="B17">
-        <v>1.02</v>
-      </c>
-      <c r="C17">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="D17">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1.0583333333333333</v>
-      </c>
-      <c r="F17">
-        <v>1230313</v>
-      </c>
-      <c r="G17">
-        <v>20.411000000000001</v>
-      </c>
-      <c r="H17">
-        <v>20.491</v>
-      </c>
-      <c r="I17">
-        <v>22.463000000000001</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>21.121666666666666</v>
-      </c>
-      <c r="K17">
-        <v>3296613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>2^13</f>
-        <v>8192</v>
-      </c>
-      <c r="B18">
-        <v>3.3969999999999998</v>
-      </c>
-      <c r="C18">
-        <v>3.3279999999999998</v>
-      </c>
-      <c r="D18">
-        <v>3.2919999999999998</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>3.339</v>
-      </c>
-      <c r="F18">
-        <v>3691360</v>
-      </c>
-      <c r="G18">
-        <v>86.962000000000003</v>
-      </c>
-      <c r="H18">
-        <v>86.712000000000003</v>
-      </c>
-      <c r="I18">
-        <v>89.835999999999999</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>87.836666666666659</v>
-      </c>
-      <c r="K18">
-        <v>131846025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
         <f>2^14</f>
         <v>16384</v>
       </c>
+      <c r="B17">
+        <v>7.72</v>
+      </c>
+      <c r="C17">
+        <v>9.7970000000000006</v>
+      </c>
+      <c r="D17">
+        <v>9.4730000000000008</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.72</v>
+      </c>
+      <c r="F17">
+        <v>110767700</v>
+      </c>
+      <c r="G17">
+        <v>275.49700000000001</v>
+      </c>
+      <c r="H17">
+        <v>349.02499999999998</v>
+      </c>
+      <c r="I17">
+        <v>278.18799999999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>275.49700000000001</v>
+      </c>
+      <c r="K17">
+        <v>527138981</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAD484C-1D35-4E34-92ED-984FBC947FD3}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:K5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>MIN(B3:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>MIN(G3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="0">MIN(B4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J17" si="1">MIN(G4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2435,11 +2703,11 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>AVERAGE(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2451,59 +2719,59 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>AVERAGE(G5:I5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E19" si="0">AVERAGE(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J19" si="1">AVERAGE(G6:I6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2513,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2522,19 +2790,19 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <v>25</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2547,421 +2815,373 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.3333333333333332E-4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>553</v>
       </c>
       <c r="G8">
         <v>1E-3</v>
       </c>
       <c r="H8">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>6.6666666666666664E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K8">
-        <v>121</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C9">
         <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.3333333333333332E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
-        <v>202</v>
+        <v>1816</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I9">
         <v>1E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>3.3333333333333332E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K9">
-        <v>593</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C10">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.3333333333333332E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
-        <v>553</v>
+        <v>5203</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>2E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I10">
-        <v>1E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="K10">
-        <v>1933</v>
+        <v>33233</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="B11">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C11">
-        <v>1E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D11">
-        <v>1E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F11">
-        <v>1816</v>
+        <v>15619</v>
       </c>
       <c r="G11">
-        <v>1E-3</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H11">
-        <v>1E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I11">
-        <v>1E-3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K11">
-        <v>8645</v>
+        <v>135241</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="B12">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>5.0000000000000001E-3</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>1E-3</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12">
-        <v>5203</v>
+        <v>47323</v>
       </c>
       <c r="G12">
-        <v>1.0999999999999999E-2</v>
+        <v>0.377</v>
       </c>
       <c r="H12">
-        <v>1.4E-2</v>
+        <v>0.37</v>
       </c>
       <c r="I12">
-        <v>1.7999999999999999E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>1.4333333333333332E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="K12">
-        <v>33233</v>
+        <v>540857</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="B13">
-        <v>6.0000000000000001E-3</v>
+        <v>0.125</v>
       </c>
       <c r="C13">
-        <v>1.2E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D13">
-        <v>1.4999999999999999E-2</v>
+        <v>0.151</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F13">
-        <v>15619</v>
+        <v>141787</v>
       </c>
       <c r="G13">
-        <v>9.0999999999999998E-2</v>
+        <v>1.4410000000000001</v>
       </c>
       <c r="H13">
-        <v>7.8E-2</v>
+        <v>1.583</v>
       </c>
       <c r="I13">
-        <v>8.2000000000000003E-2</v>
+        <v>1.617</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>8.3666666666666667E-2</v>
+        <v>1.4410000000000001</v>
       </c>
       <c r="K13">
-        <v>135241</v>
+        <v>2166329</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>512</v>
+        <f>2^11</f>
+        <v>2048</v>
       </c>
       <c r="B14">
-        <v>2.5000000000000001E-2</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="C14">
-        <v>3.3000000000000002E-2</v>
+        <v>0.377</v>
       </c>
       <c r="D14">
-        <v>4.2999999999999997E-2</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.3666666666666671E-2</v>
+        <v>0.377</v>
       </c>
       <c r="F14">
-        <v>47323</v>
+        <v>430222</v>
       </c>
       <c r="G14">
-        <v>0.377</v>
+        <v>5.7770000000000001</v>
       </c>
       <c r="H14">
-        <v>0.37</v>
+        <v>5.69</v>
       </c>
       <c r="I14">
-        <v>0.33800000000000002</v>
+        <v>5.7460000000000004</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.36166666666666664</v>
+        <v>5.69</v>
       </c>
       <c r="K14">
-        <v>540857</v>
+        <v>8711053</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1024</v>
+        <f>2^12</f>
+        <v>4096</v>
       </c>
       <c r="B15">
-        <v>0.125</v>
+        <v>1.2110000000000001</v>
       </c>
       <c r="C15">
-        <v>0.13400000000000001</v>
+        <v>1.149</v>
       </c>
       <c r="D15">
-        <v>0.151</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.13666666666666669</v>
+        <v>1.149</v>
       </c>
       <c r="F15">
-        <v>141787</v>
+        <v>1282849</v>
       </c>
       <c r="G15">
-        <v>1.4410000000000001</v>
+        <v>23.196000000000002</v>
       </c>
       <c r="H15">
-        <v>1.583</v>
+        <v>23.253</v>
       </c>
       <c r="I15">
-        <v>1.617</v>
+        <v>23.344999999999999</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>1.5469999999999999</v>
+        <v>23.196000000000002</v>
       </c>
       <c r="K15">
-        <v>2166329</v>
+        <v>34794741</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>2^11</f>
-        <v>2048</v>
+        <f>2^13</f>
+        <v>8192</v>
       </c>
       <c r="B16">
-        <v>0.39300000000000002</v>
+        <v>3.5659999999999998</v>
       </c>
       <c r="C16">
-        <v>0.377</v>
+        <v>3.3860000000000001</v>
       </c>
       <c r="D16">
-        <v>0.38400000000000001</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.38466666666666666</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="F16">
-        <v>430222</v>
+        <v>3849670</v>
       </c>
       <c r="G16">
-        <v>5.7770000000000001</v>
+        <v>91.198999999999998</v>
       </c>
       <c r="H16">
-        <v>5.69</v>
+        <v>88.486000000000004</v>
       </c>
       <c r="I16">
-        <v>5.7460000000000004</v>
+        <v>90.27</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>5.7376666666666667</v>
+        <v>88.486000000000004</v>
       </c>
       <c r="K16">
-        <v>8711053</v>
+        <v>138964061</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>2^12</f>
-        <v>4096</v>
-      </c>
-      <c r="B17">
-        <v>1.2110000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1.149</v>
-      </c>
-      <c r="D17">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1.1726666666666667</v>
-      </c>
-      <c r="F17">
-        <v>1282849</v>
-      </c>
-      <c r="G17">
-        <v>23.196000000000002</v>
-      </c>
-      <c r="H17">
-        <v>23.253</v>
-      </c>
-      <c r="I17">
-        <v>23.344999999999999</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>23.264666666666667</v>
-      </c>
-      <c r="K17">
-        <v>34794741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f>2^13</f>
-        <v>8192</v>
-      </c>
-      <c r="B18">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="C18">
-        <v>3.3860000000000001</v>
-      </c>
-      <c r="D18">
-        <v>3.2549999999999999</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>3.4023333333333334</v>
-      </c>
-      <c r="F18">
-        <v>3849670</v>
-      </c>
-      <c r="G18">
-        <v>91.198999999999998</v>
-      </c>
-      <c r="H18">
-        <v>88.486000000000004</v>
-      </c>
-      <c r="I18">
-        <v>90.27</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>89.984999999999999</v>
-      </c>
-      <c r="K18">
-        <v>138964061</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
         <f>2^14</f>
         <v>16384</v>
       </c>
-      <c r="E19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>8.5359999999999996</v>
+      </c>
+      <c r="C17">
+        <v>8.1989999999999998</v>
+      </c>
+      <c r="D17">
+        <v>8.4260000000000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8.1989999999999998</v>
+      </c>
+      <c r="F17">
+        <v>11526418</v>
+      </c>
+      <c r="G17">
+        <v>288.11799999999999</v>
+      </c>
+      <c r="H17">
+        <v>286.91899999999998</v>
+      </c>
+      <c r="I17">
+        <v>285.74900000000002</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>285.74900000000002</v>
+      </c>
+      <c r="K17">
+        <v>555077101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Tabulação dos Dados.xlsx
+++ b/Tabulação dos Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Pos Graduações\Doutorado em Computação - UFF\Disiplinas\ASA - Luis Kowada\GitHub\Karatsuba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E754407B-480F-442B-B0EF-D597ECD406B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F08F41-AF5E-4AB0-9831-1CC3B904A0E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base2" sheetId="2" r:id="rId1"/>
@@ -2781,7 +2781,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Base 8 - Acessos Recursivos</a:t>
+              <a:t>Base 10 - Acessos Recursivos</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3300,7 +3300,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Base 8 - Tempo (segundos)</a:t>
+              <a:t>Base 10 - Tempo (segundos)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3922,7 +3922,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Base 8 - Acessos Recursivos</a:t>
+              <a:t>Base 16 - Acessos Recursivos</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4549,7 +4549,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Base 8 - Tempo (segundos)</a:t>
+              <a:t>Base 16 - Tempo (segundos)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10265,8 +10265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083DF057-916D-4786-814F-F4FB5C18FC9F}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10897,15 +10897,23 @@
         <v>272774013</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
@@ -10965,23 +10973,23 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B37" si="2">F4</f>
+        <f>F4</f>
         <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C37" si="3">K4</f>
+        <f>K4</f>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E37" si="4">A4</f>
+        <f>A4</f>
         <v>2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F37" si="5">E4</f>
+        <f>E4</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G37" si="6">J4</f>
+        <f>J4</f>
         <v>0</v>
       </c>
     </row>
@@ -10991,23 +10999,23 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f>F5</f>
         <v>10</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f>K5</f>
         <v>13</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f>A5</f>
         <v>4</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f>E5</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f>J5</f>
         <v>0</v>
       </c>
     </row>
@@ -11017,23 +11025,23 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f>F6</f>
         <v>34</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f>K6</f>
         <v>65</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f>A6</f>
         <v>8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f>E6</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f>J6</f>
         <v>0</v>
       </c>
     </row>
@@ -11043,23 +11051,23 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f>F7</f>
         <v>112</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f>K7</f>
         <v>285</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f>A7</f>
         <v>16</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f>E7</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f>J7</f>
         <v>0</v>
       </c>
     </row>
@@ -11069,23 +11077,23 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f>F8</f>
         <v>226</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f>K8</f>
         <v>753</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f>A8</f>
         <v>32</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f>E8</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f>J8</f>
         <v>0</v>
       </c>
     </row>
@@ -11095,23 +11103,23 @@
         <v>64</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f>F9</f>
         <v>1075</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f>K9</f>
         <v>5093</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f>A9</f>
         <v>64</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f>E9</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f>J9</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -11121,23 +11129,23 @@
         <v>128</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f>F10</f>
         <v>2740</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f>K10</f>
         <v>16101</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f>A10</f>
         <v>128</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f>E10</f>
         <v>1E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f>J10</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -11147,23 +11155,23 @@
         <v>256</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f>F11</f>
         <v>8479</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f>K11</f>
         <v>65597</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f>A11</f>
         <v>256</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f>E11</f>
         <v>1E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f>J11</f>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
@@ -11173,23 +11181,23 @@
         <v>512</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f>F12</f>
         <v>26101</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f>K12</f>
         <v>261153</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f>A12</f>
         <v>512</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
+        <f>E12</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f>J12</f>
         <v>0.16400000000000001</v>
       </c>
     </row>
@@ -11199,23 +11207,23 @@
         <v>1024</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f>F13</f>
         <v>78877</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f>K13</f>
         <v>1074453</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f>A13</f>
         <v>1024</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f>E13</f>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f>J13</f>
         <v>0.57399999999999995</v>
       </c>
     </row>
@@ -11225,23 +11233,23 @@
         <v>2048</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f>F14</f>
         <v>236581</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f>K14</f>
         <v>4304597</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f>A14</f>
         <v>2048</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f>E14</f>
         <v>0.2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f>J14</f>
         <v>2.6890000000000001</v>
       </c>
     </row>
@@ -11251,23 +11259,23 @@
         <v>4096</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f>F15</f>
         <v>703807</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f>K15</f>
         <v>17091517</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f>A15</f>
         <v>4096</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f>E15</f>
         <v>0.64800000000000002</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f>J15</f>
         <v>10.528</v>
       </c>
     </row>
@@ -11277,23 +11285,23 @@
         <v>8192</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f>F16</f>
         <v>2124637</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f>K16</f>
         <v>68265201</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f>A16</f>
         <v>8192</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f>E16</f>
         <v>1.8660000000000001</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f>J16</f>
         <v>40.682000000000002</v>
       </c>
     </row>
@@ -11303,32 +11311,33 @@
         <v>16384</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f>F17</f>
         <v>6360397</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f>K17</f>
         <v>272774013</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f>A17</f>
         <v>16384</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f>E17</f>
         <v>5.601</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f>J17</f>
         <v>162.92099999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11343,8 +11352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D6743-F93E-4626-8EDC-39050C764888}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11975,15 +11984,23 @@
         <v>509246373</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
@@ -12013,7 +12030,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A3</f>
+        <f t="shared" ref="A23:A37" si="2">A3</f>
         <v>1</v>
       </c>
       <c r="B23">
@@ -12039,374 +12056,375 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>A4</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B37" si="2">F4</f>
+        <f t="shared" ref="B24:B37" si="3">F4</f>
         <v>4</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C37" si="3">K4</f>
+        <f t="shared" ref="C24:C37" si="4">K4</f>
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E37" si="4">A4</f>
+        <f t="shared" ref="E24:E37" si="5">A4</f>
         <v>2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F37" si="5">E4</f>
+        <f t="shared" ref="F24:F37" si="6">E4</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G37" si="6">J4</f>
+        <f t="shared" ref="G24:G37" si="7">J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>526</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2053</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1591</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7761</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A10</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4792</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31629</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A11</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14659</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122325</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A12</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43816</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>497197</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A13</f>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132685</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2002765</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1024</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.104</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3069999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A14</f>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>396490</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7901989</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2048</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32300000000000001</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.99</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A15</f>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1189975</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31809285</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0549999999999999</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.407</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A16</f>
+        <f t="shared" si="2"/>
         <v>8192</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3578794</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127218509</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1509999999999998</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>79.652000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A17</f>
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10727824</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>509246373</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2309999999999999</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>257.69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12420,8 +12438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13052,15 +13070,23 @@
         <v>527138981</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
@@ -13090,7 +13116,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A3</f>
+        <f t="shared" ref="A23:A37" si="2">A3</f>
         <v>1</v>
       </c>
       <c r="B23">
@@ -13116,374 +13142,375 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>A4</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B37" si="2">F4</f>
+        <f t="shared" ref="B24:B37" si="3">F4</f>
         <v>4</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C37" si="3">K4</f>
+        <f t="shared" ref="C24:C37" si="4">K4</f>
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E37" si="4">A4</f>
+        <f t="shared" ref="E24:E37" si="5">A4</f>
         <v>2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F37" si="5">E4</f>
+        <f t="shared" ref="F24:F37" si="6">E4</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G37" si="6">J4</f>
+        <f t="shared" ref="G24:G37" si="7">J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C26">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>457</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>541</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1985</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1690</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8077</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A10</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5026</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32633</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A11</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15286</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131797</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A12</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45559</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>513269</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.03</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.318</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A13</f>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136924</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2068069</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1024</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.278</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A14</f>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>410113</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8211149</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2048</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2690000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A15</f>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1230313</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3296613</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.02</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.411000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A16</f>
+        <f t="shared" si="2"/>
         <v>8192</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3691360</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131846025</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2919999999999998</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>86.712000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A17</f>
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11076770</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>527138981</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.72</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>275.49700000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13497,8 +13524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAD484C-1D35-4E34-92ED-984FBC947FD3}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14129,15 +14156,23 @@
         <v>555077101</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
@@ -14167,7 +14202,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A3</f>
+        <f t="shared" ref="A23:A37" si="2">A3</f>
         <v>1</v>
       </c>
       <c r="B23">
@@ -14193,374 +14228,375 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>A4</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B37" si="2">F4</f>
+        <f t="shared" ref="B24:B37" si="3">F4</f>
         <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C37" si="3">K4</f>
+        <f t="shared" ref="C24:C37" si="4">K4</f>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E37" si="4">A4</f>
+        <f t="shared" ref="E24:E37" si="5">A4</f>
         <v>2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F37" si="5">E4</f>
+        <f t="shared" ref="F24:F37" si="6">E4</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G37" si="6">J4</f>
+        <f t="shared" ref="G24:G37" si="7">J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>593</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>553</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1933</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1816</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8645</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>A10</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5203</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33233</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A11</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15619</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135241</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A12</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47323</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>540857</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>512</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A13</f>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141787</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2166329</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1024</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4410000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A14</f>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>430222</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8711053</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2048</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.377</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.69</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A15</f>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1282849</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34794741</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4096</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.149</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.196000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A16</f>
+        <f t="shared" si="2"/>
         <v>8192</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3849670</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>138964061</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8192</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2549999999999999</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88.486000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A17</f>
+        <f t="shared" si="2"/>
         <v>16384</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11526418</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>555077101</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1989999999999998</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>285.74900000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
